--- a/data/Aug 2023 MHDR/perinatal & stillbirths 2019_2023_monthly.xlsx
+++ b/data/Aug 2023 MHDR/perinatal & stillbirths 2019_2023_monthly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\prematurity April 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2998912-B6CF-452A-8BAD-3DCDB4FF7AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5B775-65A0-483D-BB49-FF426866DDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1946F9E7-0835-4094-AC1E-5669912FCF8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -1463,10 +1463,10 @@
         <v>12.034407371840713</v>
       </c>
       <c r="D38" s="2">
-        <v>4.5767525488833956</v>
+        <v>4.5787171415722989</v>
       </c>
       <c r="E38" s="2">
-        <v>2.2475124123980956</v>
+        <v>2.2484771677363971</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.5">
@@ -1480,10 +1480,10 @@
         <v>12.885528560232354</v>
       </c>
       <c r="D39" s="2">
-        <v>3.9417269835415611</v>
+        <v>3.9322096258652008</v>
       </c>
       <c r="E39" s="2">
-        <v>2.8122262689594764</v>
+        <v>2.8054361073424241</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
@@ -1497,10 +1497,10 @@
         <v>15.699599982794957</v>
       </c>
       <c r="D40" s="2">
-        <v>5.1830186244569658</v>
+        <v>5.1326830514972102</v>
       </c>
       <c r="E40" s="2">
-        <v>3.4625145167534086</v>
+        <v>3.4288878476807088</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
@@ -1514,10 +1514,10 @@
         <v>12.54400427788423</v>
       </c>
       <c r="D41" s="2">
-        <v>3.8099906421282475</v>
+        <v>3.7204647317349115</v>
       </c>
       <c r="E41" s="2">
-        <v>2.1612227619090061</v>
+        <v>2.1104390583525521</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
@@ -1531,10 +1531,10 @@
         <v>11.338812025382296</v>
       </c>
       <c r="D42" s="2">
-        <v>3.578487464891293</v>
+        <v>3.4829799728651558</v>
       </c>
       <c r="E42" s="2">
-        <v>1.9972953292416518</v>
+        <v>1.9439888220642731</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.5">
@@ -1548,10 +1548,10 @@
         <v>15.075063850993585</v>
       </c>
       <c r="D43" s="2">
-        <v>5.004256732905584</v>
+        <v>4.8825948661844851</v>
       </c>
       <c r="E43" s="2">
-        <v>3.4469154259847588</v>
+        <v>3.363115136044085</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
@@ -1565,10 +1565,10 @@
         <v>14.920194309507288</v>
       </c>
       <c r="D44" s="2">
-        <v>4.8985590072253746</v>
+        <v>4.7543581616481774</v>
       </c>
       <c r="E44" s="2">
-        <v>3.2657060048169164</v>
+        <v>3.1695721077654517</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
@@ -1582,10 +1582,10 @@
         <v>15.118404322949779</v>
       </c>
       <c r="D45" s="2">
-        <v>4.5692943420216148</v>
+        <v>4.4423842082898757</v>
       </c>
       <c r="E45" s="2">
-        <v>3.0991735537190084</v>
+        <v>3.0130953760574806</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
@@ -1599,10 +1599,10 @@
         <v>11.968943194354821</v>
       </c>
       <c r="D46" s="2">
-        <v>3.7051685019046232</v>
+        <v>3.5135508576617123</v>
       </c>
       <c r="E46" s="2">
-        <v>2.7476530463562376</v>
+        <v>2.6055545686030674</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
@@ -1616,10 +1616,10 @@
         <v>9.6927462781121321</v>
       </c>
       <c r="D47" s="2">
-        <v>2.5129342202512932</v>
+        <v>2.3776698835141561</v>
       </c>
       <c r="E47" s="2">
-        <v>2.1117094287825995</v>
+        <v>1.9980419189194591</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -1636,10 +1636,10 @@
         <v>13.863235446715782</v>
       </c>
       <c r="D48" s="2">
-        <v>3.3791583586945113</v>
+        <v>3.3635565954957589</v>
       </c>
       <c r="E48" s="2">
-        <v>3.2112498688214925</v>
+        <v>3.1964233485146032</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.5">
@@ -1653,10 +1653,10 @@
         <v>17.15148756568875</v>
       </c>
       <c r="D49" s="2">
-        <v>5.4401272152825726</v>
+        <v>5.4099042863087803</v>
       </c>
       <c r="E49" s="2">
-        <v>3.7453183520599249</v>
+        <v>3.7245110278818143</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.5">
@@ -1670,10 +1670,10 @@
         <v>13.682548678298183</v>
       </c>
       <c r="D50" s="2">
-        <v>4.2057982850142919</v>
+        <v>4.1669195137245385</v>
       </c>
       <c r="E50" s="2">
-        <v>2.6541445487954269</v>
+        <v>2.6296094018649998</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.5">
@@ -1687,10 +1687,10 @@
         <v>20.222469165685617</v>
       </c>
       <c r="D51" s="2">
-        <v>6.1420430608217478</v>
+        <v>6.0744947972061709</v>
       </c>
       <c r="E51" s="2">
-        <v>4.7007694183906512</v>
+        <v>4.649071830352737</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.5">
@@ -1704,10 +1704,10 @@
         <v>12.636479521143935</v>
       </c>
       <c r="D52" s="2">
-        <v>3.6581496481830569</v>
+        <v>3.6347451969438471</v>
       </c>
       <c r="E52" s="2">
-        <v>2.6129640344164691</v>
+        <v>2.5962465692456052</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.5">
@@ -1721,10 +1721,10 @@
         <v>13.773325793682849</v>
       </c>
       <c r="D53" s="2">
-        <v>4.716114411710663</v>
+        <v>4.6858835223238735</v>
       </c>
       <c r="E53" s="2">
-        <v>2.8378350789081481</v>
+        <v>2.8196441974156641</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.5">
@@ -1738,10 +1738,10 @@
         <v>14.529019242706394</v>
       </c>
       <c r="D54" s="2">
-        <v>4.1532795235483118</v>
+        <v>4.111315814990788</v>
       </c>
       <c r="E54" s="2">
-        <v>3.1149596426612334</v>
+        <v>3.0834868612430912</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.5">
@@ -1755,14 +1755,20 @@
         <v>11.788390096091982</v>
       </c>
       <c r="D55" s="2">
-        <v>3.8815803277312688</v>
+        <v>3.8275334133322296</v>
       </c>
       <c r="E55" s="2">
-        <v>1.9722624367931851</v>
+        <v>1.9448007613688088</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
+      <c r="D56" s="2">
+        <v>4.7020123839009287</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2.8444272445820435</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
